--- a/ai-maturity-assessment/AIMA_0.20250704.xlsx
+++ b/ai-maturity-assessment/AIMA_0.20250704.xlsx
@@ -544,28 +544,196 @@
     <t>AIMA は、AI システムのライフサイクル全体にわたる 8 つの評価ドメインを定義しています。</t>
   </si>
   <si>
-    <t>責任ある AI の原則: 公平性、透明性、社会への影響。</t>
-  </si>
-  <si>
-    <t>ガバナンス: 戦略、ポリシー、教育。</t>
-  </si>
-  <si>
-    <t>データ管理: 品質、説明責任、およびトレーニング データの実践。</t>
-  </si>
-  <si>
-    <t>プライバシー: データの最小化、設計によるプライバシー、ユーザー制御。</t>
-  </si>
-  <si>
-    <t>設計: 脅威モデル、セキュリティ アーキテクチャ、および要件。</t>
-  </si>
-  <si>
-    <t>実装: 安全なビルド、デプロイメント、および欠陥管理。</t>
-  </si>
-  <si>
-    <t>検証: テストとアーキテクチャの検証。</t>
-  </si>
-  <si>
-    <t>運用: 監視、インシデント対応、システム ライフサイクル管理。</t>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>責任ある AI の原則</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 公平性、透明性、社会への影響。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ガバナンス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 戦略、ポリシー、教育。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>データ管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 品質、説明責任、および学習データの慣行。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>プライバシー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: データの最小化、設計によるプライバシー、ユーザーによる管理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>設計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 脅威モデル、セキュリティ アーキテクチャ、および要件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>実装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 安全なビルド、デプロイメント、および不具合管理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>検証</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: テストとアーキテクチャの検証。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>運用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 監視、インシデント対応、システム ライフサイクル管理。</t>
+    </r>
   </si>
   <si>
     <t>各ドメインには、2 つの補完的なストリーム（例: 作成と促進（ストリーム A）と測定と改善（ストリーム B））にグループ化された成熟度基準が含まれています。組織は、自らの取り組みを評価し、ギャップを特定し、体系的に改善の優先順位付けを行うことができます。</t>
@@ -4527,6 +4695,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■高度な分析</t>
     </r>
     <r>
@@ -6388,6 +6563,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■不具合の優先順位付け:</t>
     </r>
     <r>
@@ -6540,6 +6722,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■</t>
     </r>
     <r>
@@ -8081,13 +8269,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8160,16 +8348,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8182,8 +8362,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8192,6 +8395,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8206,16 +8425,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8227,34 +8454,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8268,30 +8479,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8307,6 +8495,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
       <name val="Meiryo UI"/>
       <charset val="134"/>
     </font>
@@ -8362,7 +8557,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8374,7 +8593,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8386,43 +8659,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8434,7 +8689,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8446,103 +8731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8657,17 +8852,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8705,15 +8894,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -8723,8 +8903,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8743,17 +8949,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -8762,145 +8957,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8911,7 +9106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8923,10 +9118,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -8938,7 +9133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8953,7 +9148,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9994,13 +10189,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7833360</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>4504055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10018,7 +10213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="320040" y="12070080"/>
+          <a:off x="320040" y="11879580"/>
           <a:ext cx="7924800" cy="4496435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10361,10 +10556,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F60"/>
+  <dimension ref="B1:F59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -10532,68 +10727,64 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-    </row>
-    <row r="44" ht="16.2" spans="2:2">
-      <c r="B44" s="40" t="s">
+    <row r="43" ht="16.2" spans="2:2">
+      <c r="B43" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" ht="363" customHeight="1"/>
-    <row r="47" spans="3:3">
-      <c r="C47" s="42" t="s">
+    <row r="45" ht="363" customHeight="1"/>
+    <row r="46" spans="3:3">
+      <c r="C46" s="42" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="48" s="41" customFormat="1" ht="14.4" spans="3:3">
+      <c r="C48" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="49" s="41" customFormat="1" ht="14.4" spans="3:3">
-      <c r="C49" s="42" t="s">
-        <v>27</v>
+      <c r="C49" s="50" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" s="41" customFormat="1" ht="14.4" spans="3:3">
       <c r="C50" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" s="41" customFormat="1" ht="14.4" spans="3:3">
       <c r="C51" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" s="41" customFormat="1" ht="14.4" spans="3:3">
       <c r="C52" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" s="41" customFormat="1" ht="14.4" spans="3:3">
       <c r="C53" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" s="41" customFormat="1" ht="14.4" spans="3:3">
       <c r="C54" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" s="41" customFormat="1" ht="14.4" spans="3:3">
       <c r="C55" s="50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" s="41" customFormat="1" ht="14.4" spans="3:3">
-      <c r="C56" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" ht="28.8" spans="3:3">
-      <c r="C58" s="42" t="s">
+    <row r="57" ht="28.8" spans="3:3">
+      <c r="C57" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="42" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" s="42" t="s">
         <v>36</v>
       </c>
     </row>
